--- a/hasilakhir.xlsx
+++ b/hasilakhir.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VariablesWeightPipik-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\pythonProjects\VariablesWeightPipik-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBD9195-FD62-4391-8D44-8F0ED598A660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PeningkProduktivitasEfisiensi" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Efisiensi Penduduk (Penamb 1 Ha&gt;Penamb Jiwa)</t>
   </si>
@@ -81,12 +80,6 @@
     <t>0.196649</t>
   </si>
   <si>
-    <t>0.4276841</t>
-  </si>
-  <si>
-    <t>0.45241669</t>
-  </si>
-  <si>
     <t>0.4434906</t>
   </si>
   <si>
@@ -99,25 +92,25 @@
     <t>0 (NaN)</t>
   </si>
   <si>
-    <t>0.45099457</t>
-  </si>
-  <si>
-    <t>0.17623906</t>
-  </si>
-  <si>
-    <t>0.0950026</t>
-  </si>
-  <si>
-    <t>0.40485331</t>
-  </si>
-  <si>
-    <t>0.43512206</t>
+    <t>0.316882237134571</t>
+  </si>
+  <si>
+    <t>0.28438578293359296</t>
+  </si>
+  <si>
+    <t>0.4522788374012998</t>
+  </si>
+  <si>
+    <t>0.4796883930650522</t>
+  </si>
+  <si>
+    <t>0.039839962742649115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,19 +444,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="54.88671875" customWidth="1"/>
+    <col min="1" max="3" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,19 +481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="62.6640625" customWidth="1"/>
+    <col min="1" max="4" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -511,42 +504,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>42.375293775063291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-790448570037472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -560,38 +553,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>-790448570037472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="2" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -600,106 +661,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="68.5546875" customWidth="1"/>
-    <col min="2" max="4" width="37.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/hasilakhir.xlsx
+++ b/hasilakhir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\pythonProjects\VariablesWeightPipik-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VariablesWeightPipik-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B2611-D2AA-493E-83BB-EFDA66D57B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PeningkProduktivitasEfisiensi" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Efisiensi Penduduk (Penamb 1 Ha&gt;Penamb Jiwa)</t>
   </si>
@@ -77,21 +78,6 @@
     <t>Penduduk Perkotaan 2020 (Jiwa)</t>
   </si>
   <si>
-    <t>0.196649</t>
-  </si>
-  <si>
-    <t>0.4434906</t>
-  </si>
-  <si>
-    <t>0.46565553</t>
-  </si>
-  <si>
-    <t>0.2584668</t>
-  </si>
-  <si>
-    <t>0 (NaN)</t>
-  </si>
-  <si>
     <t>0.316882237134571</t>
   </si>
   <si>
@@ -105,12 +91,51 @@
   </si>
   <si>
     <t>0.039839962742649115</t>
+  </si>
+  <si>
+    <t>0.2291986712359344</t>
+  </si>
+  <si>
+    <t>0.3926944236551516</t>
+  </si>
+  <si>
+    <t>0.5346408687736828</t>
+  </si>
+  <si>
+    <t>0.5782954761955164</t>
+  </si>
+  <si>
+    <t>0.06020660894599805</t>
+  </si>
+  <si>
+    <t>0.5545502656703147</t>
+  </si>
+  <si>
+    <t>0.5874722157539322</t>
+  </si>
+  <si>
+    <t>0.561062311796384</t>
+  </si>
+  <si>
+    <t>0.6168080666724975</t>
+  </si>
+  <si>
+    <t>0.027638599077880355</t>
+  </si>
+  <si>
+    <t>0.5557332600302376</t>
+  </si>
+  <si>
+    <t>0.621318706033761</t>
+  </si>
+  <si>
+    <t>0.06503567278497624</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,6 +205,906 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3608254</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15EEC4D-E831-6550-D32D-391A8848DE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="403860"/>
+          <a:ext cx="3593014" cy="2908935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3509010</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C81CA4B-A530-2B47-4435-F52F6DD6BDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604760" y="495463"/>
+          <a:ext cx="3432810" cy="2779232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321961</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3331348</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5290EC99-153D-35CC-133E-A129A355C440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4621818" y="434574"/>
+          <a:ext cx="3009387" cy="2368028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2595563</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680C9CEE-DCE9-A162-E673-7170BBF3692E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8623528" y="501854"/>
+          <a:ext cx="2568348" cy="2013869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2809948</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2025F396-D14D-D137-0A0D-6445DFCD8B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13329898" y="655928"/>
+          <a:ext cx="2374519" cy="1784853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4043020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2739570</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88EDF9C-A47F-0D49-F1EB-CC25DD3D9A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8342877" y="2499300"/>
+          <a:ext cx="2996407" cy="2409738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3862683</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2729452</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDBBEE6-F819-6F0B-DC12-E2907162598C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162540" y="5010828"/>
+          <a:ext cx="3166626" cy="2479381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3683510</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>21631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2990781</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E26A639-8A1F-A92C-9CB6-D2834579DC2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7983367" y="7451131"/>
+          <a:ext cx="3607128" cy="2747423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1861457</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2728621</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BF699B-DDCE-992E-74D9-666D2FD76D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1861457" y="587828"/>
+          <a:ext cx="3272907" cy="2635704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2829394</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348188</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EA8C8E-86AC-F324-786D-5ABF9DE82C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5240312" y="718279"/>
+          <a:ext cx="2896515" cy="2378907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493426</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>81507</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17652D6-8A11-9EB8-D613-1577945847A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8282065" y="821415"/>
+          <a:ext cx="2679803" cy="2169591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>242206</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC485626-D4DC-09A1-2748-539A18525F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5443673" y="4308928"/>
+          <a:ext cx="2581819" cy="2120447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1928091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1847025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>4311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7433770E-2BD4-A95F-2F35-B97D9714E1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4341091" y="6858000"/>
+          <a:ext cx="5299116" cy="4409745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1868965</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>141642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1826156</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>160370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54241452-B5E2-3A78-F9FB-BB52EBDB1439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270922" y="11439120"/>
+          <a:ext cx="5324321" cy="4391946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4175760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C593024-C261-1187-E9AA-64B048E81224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4175760" y="461381"/>
+          <a:ext cx="3446145" cy="2775214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>478384</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524E438F-6EC4-3EC3-28B7-C75F984C7015}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7740244" y="548640"/>
+          <a:ext cx="3282085" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1359558</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04751D32-C39F-8836-F96A-6137C18C294E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11181738" y="609600"/>
+          <a:ext cx="3113381" cy="2459355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>994410</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4944465-C59C-92AC-963C-AAB15D3CFCEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="3667985"/>
+          <a:ext cx="3501390" cy="2875690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>903118</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D5490F-5BA6-8D60-41A2-BB5E423CE1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7268308" y="6506308"/>
+          <a:ext cx="3467541" cy="2754923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366346</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>92920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712FE735-20BF-FEA4-1377-78548FE40EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7795846" y="9638581"/>
+          <a:ext cx="2403231" cy="1884339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,19 +1369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="54.85546875" customWidth="1"/>
+    <col min="1" max="3" width="54.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,36 +1389,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="39" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="62.7109375" customWidth="1"/>
+    <col min="1" max="4" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -504,71 +1430,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>-790448570037472</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="46" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -579,64 +1518,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>-790448570037472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B32">
+        <v>-2.51910497682006E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" customWidth="1"/>
-    <col min="2" max="4" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="68.5546875" customWidth="1"/>
+    <col min="2" max="4" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -647,50 +1605,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>